--- a/hourly datasets/cap_gen_year0final.xlsx
+++ b/hourly datasets/cap_gen_year0final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09375460337662647</v>
+        <v>0.08850642943357422</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004237498162376657</v>
+        <v>0.0005939510681812405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001811205933535904</v>
+        <v>0.0005464916938715664</v>
       </c>
       <c r="D3" t="n">
-        <v>1.776393484395429</v>
+        <v>2.545066805924304</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1131291488006221</v>
+        <v>0.2144713576259772</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006875583825050189</v>
+        <v>-0.0004771560516121309</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007787437942248297</v>
+        <v>0.001665058187974612</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09799210153900313</v>
+        <v>0.08910038050175545</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01465222424618167</v>
+        <v>0.009935773338771449</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005890047719014516</v>
+        <v>0.0007124288880028367</v>
       </c>
       <c r="D4" t="n">
-        <v>6.13999020183141</v>
+        <v>13.9138704988514</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1092467695850421</v>
+        <v>0.01461699455879539</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003107802149118193</v>
+        <v>0.00853943451564367</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02619664634324516</v>
+        <v>0.01133211216189923</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1084068276228081</v>
+        <v>0.09844220277234567</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06421179745732911</v>
+        <v>0.05038441735037621</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006733761640432251</v>
+        <v>0.001481591126985743</v>
       </c>
       <c r="D5" t="n">
-        <v>9.012948175370363</v>
+        <v>24.0324537832172</v>
       </c>
       <c r="E5" t="n">
-        <v>0.134887229154304</v>
+        <v>0.09869496024145431</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05101370532203996</v>
+        <v>0.04748054374149523</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0774098895926182</v>
+        <v>0.0532882909592572</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1579664008339556</v>
+        <v>0.1388908467839504</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05889013408526664</v>
+        <v>0.1435283801441561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004596406536168187</v>
+        <v>0.003027455121449116</v>
       </c>
       <c r="D6" t="n">
-        <v>9.122087106721148</v>
+        <v>38.33826927612975</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3756517425541795</v>
+        <v>0.04449515760062214</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05063670282992236</v>
+        <v>0.1375946625751373</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06601726935075436</v>
+        <v>0.1494620977131749</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1526447374618931</v>
+        <v>0.2320348095777303</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04371107749531843</v>
+        <v>0.1474985606801619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005270896618363224</v>
+        <v>0.003617413303276194</v>
       </c>
       <c r="D7" t="n">
-        <v>8.400944521227254</v>
+        <v>42.00640300074584</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4579689469553643</v>
+        <v>0.01615739860040682</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03419220133681587</v>
+        <v>0.1404085446284985</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05190518374347967</v>
+        <v>0.1545885767318253</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1374656808719449</v>
+        <v>0.2360049901137362</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03513110619580413</v>
+        <v>0.1541295751607056</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003320884488587103</v>
+        <v>0.006678467174539767</v>
       </c>
       <c r="D8" t="n">
-        <v>7.155981509632531</v>
+        <v>36.87449747958502</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04041414202096135</v>
+        <v>0.1611515920560151</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04131954170319552</v>
+        <v>0.1410399706319905</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04132756390214946</v>
+        <v>0.1672191796894208</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1288857095724306</v>
+        <v>0.2426360045942799</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03394667659284921</v>
+        <v>0.1497420033581862</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001328861854803296</v>
+        <v>-0.0003971853232446947</v>
       </c>
       <c r="D9" t="n">
-        <v>6.765087906711628</v>
+        <v>36.24206586876861</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4906508198162439</v>
+        <v>-2.1155163672883</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03014313805696896</v>
+        <v>0.1471802994563764</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04088782228285068</v>
+        <v>0.1612311264783391</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1277012799694757</v>
+        <v>0.2382484327917604</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09375460337662647</v>
+        <v>-0.08850642943357422</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001164585386255982</v>
+        <v>0.0004388197056097383</v>
       </c>
       <c r="D10" t="n">
-        <v>-102.9340783777363</v>
+        <v>-216.0002379275462</v>
       </c>
       <c r="E10" t="n">
-        <v>2.107636652945868e-11</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09603717705133157</v>
+        <v>-0.08936650296156834</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09147202970192139</v>
+        <v>-0.08764635590558011</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03746835140113434</v>
+        <v>-0.03613024727371009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001305348643274259</v>
+        <v>0.0005018085756394649</v>
       </c>
       <c r="D11" t="n">
-        <v>-34.76858476446822</v>
+        <v>-74.94290853472184</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0006894880310245554</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04002681947401755</v>
+        <v>-0.03711377714342275</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03490988332825115</v>
+        <v>-0.03514671740399741</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05628625197549213</v>
+        <v>0.05237618215986413</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03111396494387646</v>
+        <v>-0.02850736696045795</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001262574822731892</v>
+        <v>0.000494573272642717</v>
       </c>
       <c r="D12" t="n">
-        <v>-29.73267685794056</v>
+        <v>-61.39002078563549</v>
       </c>
       <c r="E12" t="n">
-        <v>0.007141883744269145</v>
+        <v>2.991974925187464e-175</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03358859696994404</v>
+        <v>-0.02947671585979815</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02863933291780888</v>
+        <v>-0.02753801806111772</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06264063843275001</v>
+        <v>0.05999906247311627</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0252345632668863</v>
+        <v>-0.02330292712748843</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001247537351302122</v>
+        <v>0.0004932577155800657</v>
       </c>
       <c r="D13" t="n">
-        <v>-24.34836464190517</v>
+        <v>-50.79828173315393</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01271948266190174</v>
+        <v>1.284825300114752e-141</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0276797222348231</v>
+        <v>-0.02426969764100124</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02278940429894949</v>
+        <v>-0.02233615661397561</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06852004010974017</v>
+        <v>0.06520350230608579</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02035084384502745</v>
+        <v>-0.01892315855453118</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001234697730605145</v>
+        <v>0.0004873558885365723</v>
       </c>
       <c r="D14" t="n">
-        <v>-19.8744971115948</v>
+        <v>-41.39414847844651</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02137953262990494</v>
+        <v>4.123136802050445e-93</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02277083721357635</v>
+        <v>-0.01987836166664428</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01793085047647856</v>
+        <v>-0.01796795544241809</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07340375953159903</v>
+        <v>0.06958327087904304</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01569371410392914</v>
+        <v>-0.01334480337335203</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001204680701936201</v>
+        <v>0.0004660309868089372</v>
       </c>
       <c r="D15" t="n">
-        <v>-15.94864722381226</v>
+        <v>-31.64008833482075</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03233166040298444</v>
+        <v>1.542997232946368e-31</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01805487468933994</v>
+        <v>-0.01425821024202413</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01333255351851832</v>
+        <v>-0.01243139650467992</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07806088927269733</v>
+        <v>0.0751616260602222</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01181470983132664</v>
+        <v>-0.01056154666330594</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001175258772658092</v>
+        <v>0.0004457147118100469</v>
       </c>
       <c r="D16" t="n">
-        <v>-12.29985379452735</v>
+        <v>-25.29313899271546</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03018928678878565</v>
+        <v>2.440284701443214e-39</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01411820380644047</v>
+        <v>-0.01143513420426613</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.009511215856212805</v>
+        <v>-0.009687959122345749</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08193989354529983</v>
+        <v>0.07794488277026827</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01052807954826354</v>
+        <v>-0.008323921296145084</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001197042598024855</v>
+        <v>0.0004453057277569389</v>
       </c>
       <c r="D17" t="n">
-        <v>-10.31068709274246</v>
+        <v>-20.48058997765746</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05879291489223931</v>
+        <v>0.02115549076508775</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01287426988839473</v>
+        <v>-0.009196707172414699</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.008181889208132353</v>
+        <v>-0.007451135419875469</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08322652382836293</v>
+        <v>0.08018250813742914</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.00996892315010285</v>
+        <v>-0.00820476721482506</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00124269245498947</v>
+        <v>0.0004772400031403092</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.367389636805616</v>
+        <v>-18.01775918915204</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05482291643183727</v>
+        <v>9.043266100495062e-16</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01240458681439775</v>
+        <v>-0.009140143445066801</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.007533259485807946</v>
+        <v>-0.00726939098458332</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08378568022652362</v>
+        <v>0.08030166221874915</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.008326033686163152</v>
+        <v>-0.006466934182283023</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001221777999621667</v>
+        <v>0.0004753091026563042</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.09105776888169</v>
+        <v>-15.60712229935283</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0835257125856077</v>
+        <v>0.004876474867258261</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01072070479087155</v>
+        <v>-0.007398525975863419</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.005931362581454755</v>
+        <v>-0.005535342388702629</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08542856969046332</v>
+        <v>0.08203949525129119</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.006597545795086843</v>
+        <v>-0.005543121604593432</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001233562355471393</v>
+        <v>0.0004756594907113275</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.271733828747882</v>
+        <v>-13.06122375267371</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03948455901362651</v>
+        <v>4.171514952288219e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.009015314319200581</v>
+        <v>-0.006475400112895754</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.004179777270973105</v>
+        <v>-0.004610843096291113</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08715705758153963</v>
+        <v>0.08296330782898079</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.004481715318185526</v>
+        <v>-0.003263367144238542</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001233113944903144</v>
+        <v>0.0004665058733254265</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.405616645860427</v>
+        <v>-8.209332715407827</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1055443607313615</v>
+        <v>0.0002583707643156257</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.006898604764428051</v>
+        <v>-0.004177704713698394</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002064825871943001</v>
+        <v>-0.002349029574778689</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08927288805844094</v>
+        <v>0.08524306228933567</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.004183088131658293</v>
+        <v>-0.003564553295063925</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001231143350857739</v>
+        <v>0.0004792158176284522</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.998027411248278</v>
+        <v>-7.675268909836387</v>
       </c>
       <c r="E22" t="n">
-        <v>0.111538231507868</v>
+        <v>0.000714658274040344</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.006596114931552946</v>
+        <v>-0.004503802103207974</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.001770061331763641</v>
+        <v>-0.002625304486919877</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08957151524496818</v>
+        <v>0.08494187613851029</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004728049864547</v>
+        <v>-0.003557501292084617</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001211859055689091</v>
+        <v>0.0004523152716267988</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.855870051751696</v>
+        <v>-7.605916162201303</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07022826351828972</v>
+        <v>0.02917577412055372</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.00710327983382632</v>
+        <v>-0.004444025693828793</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.002352819895267682</v>
+        <v>-0.002670976890340441</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08902655351207947</v>
+        <v>0.0849489281414896</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002894112012240824</v>
+        <v>-0.002250385406978238</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001208984939435391</v>
+        <v>0.0004473134614418279</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.429275164294986</v>
+        <v>-5.323828450117258</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1587980199372674</v>
+        <v>0.0008650435432193291</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.005263708447481013</v>
+        <v>-0.003127106371952358</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0005245155770006321</v>
+        <v>-0.001373664442004118</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09086049136438565</v>
+        <v>0.08625604402659598</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002729124198847017</v>
+        <v>-0.001708380286252814</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001181561156242817</v>
+        <v>0.0004207538742031859</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.351507822765579</v>
+        <v>-4.37801352867651</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2356604920797591</v>
+        <v>0.1289623274452273</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.005044970141145596</v>
+        <v>-0.002533045184823293</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0004132782565484371</v>
+        <v>-0.0008837153876823341</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09102547917777945</v>
+        <v>0.08679804914732141</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.06049144521642931</v>
+        <v>0.2106851903530488</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002475415305635991</v>
+        <v>0.003307286072215352</v>
       </c>
       <c r="D26" t="n">
-        <v>17.62231392581712</v>
+        <v>98.88865119218204</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05924729267545142</v>
+        <v>0.01755462643176985</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06367283867708751</v>
+        <v>0.20420300963343</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0648297849359081</v>
+        <v>0.2171673710726675</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1542460485930558</v>
+        <v>0.299191619786623</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year0final.xlsx
+++ b/hourly datasets/cap_gen_year0final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.08850642943357422</v>
+        <v>0.09035875758483407</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0005939510681812405</v>
+        <v>0.0007453133051119356</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005464916938715664</v>
+        <v>0.0005572764609807489</v>
       </c>
       <c r="D3" t="n">
-        <v>2.545066805924304</v>
+        <v>2.718937160587231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2144713576259772</v>
+        <v>0.05495597165056257</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0004771560516121309</v>
+        <v>-0.000346931639899571</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001665058187974612</v>
+        <v>0.001837558250123442</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08910038050175545</v>
+        <v>0.091104070889946</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009935773338771449</v>
+        <v>0.008047677364066303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007124288880028367</v>
+        <v>0.0006930329197153353</v>
       </c>
       <c r="D4" t="n">
-        <v>13.9138704988514</v>
+        <v>13.05545696621027</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01461699455879539</v>
+        <v>0.08796933430650267</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00853943451564367</v>
+        <v>0.006689353965807333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01133211216189923</v>
+        <v>0.009406000762325274</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09844220277234567</v>
+        <v>0.09840643494890038</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05038441735037621</v>
+        <v>0.04945057672208831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001481591126985743</v>
+        <v>0.00150024101986116</v>
       </c>
       <c r="D5" t="n">
-        <v>24.0324537832172</v>
+        <v>23.13783913155312</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09869496024145431</v>
+        <v>0.05669583058578501</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04748054374149523</v>
+        <v>0.04651014963702772</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0532882909592572</v>
+        <v>0.05239100380714888</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1388908467839504</v>
+        <v>0.1398093343069224</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1435283801441561</v>
+        <v>0.1423819253842032</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003027455121449116</v>
+        <v>0.00304437698360063</v>
       </c>
       <c r="D6" t="n">
-        <v>38.33826927612975</v>
+        <v>37.71201922392068</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04449515760062214</v>
+        <v>0.03799898156646389</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1375946625751373</v>
+        <v>0.136415041351782</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1494620977131749</v>
+        <v>0.1483488094166244</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2320348095777303</v>
+        <v>0.2327406829690373</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1474985606801619</v>
+        <v>0.1495041991566577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003617413303276194</v>
+        <v>0.003790723030796284</v>
       </c>
       <c r="D7" t="n">
-        <v>42.00640300074584</v>
+        <v>42.32345055914551</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01615739860040682</v>
+        <v>0.0294209678608905</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1404085446284985</v>
+        <v>0.1420745012371547</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1545885767318253</v>
+        <v>0.1569338970761607</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2360049901137362</v>
+        <v>0.2398629567414918</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1541295751607056</v>
+        <v>0.1511409137484277</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006678467174539767</v>
+        <v>0.003035353125952376</v>
       </c>
       <c r="D8" t="n">
-        <v>36.87449747958502</v>
+        <v>36.5381844513278</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1611515920560151</v>
+        <v>-0.4017802676217984</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1410399706319905</v>
+        <v>0.1448774408883143</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1672191796894208</v>
+        <v>0.1620381846380307</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2426360045942799</v>
+        <v>0.2414996713332618</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1497420033581862</v>
+        <v>0.1501044130500133</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0003971853232446947</v>
+        <v>0.002453621789350596</v>
       </c>
       <c r="D9" t="n">
-        <v>36.24206586876861</v>
+        <v>36.08662193691864</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.1155163672883</v>
+        <v>-0.4801073534113949</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1471802994563764</v>
+        <v>0.1449749135672873</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1612311264783391</v>
+        <v>0.1586472131697937</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2382484327917604</v>
+        <v>0.2404631706348474</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.08850642943357422</v>
+        <v>-0.09035875758483407</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004388197056097383</v>
+        <v>0.000443483405916418</v>
       </c>
       <c r="D10" t="n">
-        <v>-216.0002379275462</v>
+        <v>-217.1717924417007</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08936650296156834</v>
+        <v>-0.09122797183860303</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08764635590558011</v>
+        <v>-0.08948954333106511</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03613024727371009</v>
+        <v>-0.03599911804999886</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005018085756394649</v>
+        <v>0.0005093697377723862</v>
       </c>
       <c r="D11" t="n">
-        <v>-74.94290853472184</v>
+        <v>-73.11548590078137</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03711377714342275</v>
+        <v>-0.03699746758408604</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03514671740399741</v>
+        <v>-0.03500076851591168</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05237618215986413</v>
+        <v>0.05435963953483521</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02850736696045795</v>
+        <v>-0.02771708994545114</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000494573272642717</v>
+        <v>0.0004996894320669333</v>
       </c>
       <c r="D12" t="n">
-        <v>-61.39002078563549</v>
+        <v>-58.76824807400371</v>
       </c>
       <c r="E12" t="n">
-        <v>2.991974925187464e-175</v>
+        <v>5.383952248851141e-167</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02947671585979815</v>
+        <v>-0.02869646637905946</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02753801806111772</v>
+        <v>-0.02673771351184282</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05999906247311627</v>
+        <v>0.06264166763938292</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02330292712748843</v>
+        <v>-0.02307670914534793</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004932577155800657</v>
+        <v>0.0004978984353359926</v>
       </c>
       <c r="D13" t="n">
-        <v>-50.79828173315393</v>
+        <v>-49.84734848636217</v>
       </c>
       <c r="E13" t="n">
-        <v>1.284825300114752e-141</v>
+        <v>5.57533279852445e-131</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.02426969764100124</v>
+        <v>-0.02405257534765954</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02233615661397561</v>
+        <v>-0.02210084294303631</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06520350230608579</v>
+        <v>0.06728204843948614</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01892315855453118</v>
+        <v>-0.01882887976883933</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004873558885365723</v>
+        <v>0.0004929407293723351</v>
       </c>
       <c r="D14" t="n">
-        <v>-41.39414847844651</v>
+        <v>-40.6595153666197</v>
       </c>
       <c r="E14" t="n">
-        <v>4.123136802050445e-93</v>
+        <v>2.652029869760228e-75</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01987836166664428</v>
+        <v>-0.01979502902715899</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01796795544241809</v>
+        <v>-0.01786273051051968</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06958327087904304</v>
+        <v>0.07152987781599474</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01334480337335203</v>
+        <v>-0.01294277212538044</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004660309868089372</v>
+        <v>0.000468507939730583</v>
       </c>
       <c r="D15" t="n">
-        <v>-31.64008833482075</v>
+        <v>-30.46350840087528</v>
       </c>
       <c r="E15" t="n">
-        <v>1.542997232946368e-31</v>
+        <v>6.151435878293833e-27</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01425821024202413</v>
+        <v>-0.01386103376584178</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01243139650467992</v>
+        <v>-0.0120245104849191</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0751616260602222</v>
+        <v>0.07741598545945363</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01056154666330594</v>
+        <v>-0.01035343662496674</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004457147118100469</v>
+        <v>0.0004485325957337553</v>
       </c>
       <c r="D16" t="n">
-        <v>-25.29313899271546</v>
+        <v>-24.49977836198154</v>
       </c>
       <c r="E16" t="n">
-        <v>2.440284701443214e-39</v>
+        <v>2.716059963409994e-46</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01143513420426613</v>
+        <v>-0.01123254715019084</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.009687959122345749</v>
+        <v>-0.00947432609974265</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07794488277026827</v>
+        <v>0.08000532095986733</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.008323921296145084</v>
+        <v>-0.008320737592332081</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004453057277569389</v>
+        <v>0.0004473048425164133</v>
       </c>
       <c r="D17" t="n">
-        <v>-20.48058997765746</v>
+        <v>-20.41917019362324</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02115549076508775</v>
+        <v>0.05143386165202373</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.009196707172414699</v>
+        <v>-0.009197441689374832</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.007451135419875469</v>
+        <v>-0.00744403349528933</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08018250813742914</v>
+        <v>0.08203801999250199</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.00820476721482506</v>
+        <v>-0.008280921442804802</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004772400031403092</v>
+        <v>0.0004781901892742485</v>
       </c>
       <c r="D18" t="n">
-        <v>-18.01775918915204</v>
+        <v>-18.12980568129282</v>
       </c>
       <c r="E18" t="n">
-        <v>9.043266100495062e-16</v>
+        <v>8.902166214344409e-27</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.009140143445066801</v>
+        <v>-0.009218160027471535</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.00726939098458332</v>
+        <v>-0.007343682858138066</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08030166221874915</v>
+        <v>0.08207783614202926</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006466934182283023</v>
+        <v>-0.006419920710407156</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004753091026563042</v>
+        <v>0.0004794681499666025</v>
       </c>
       <c r="D19" t="n">
-        <v>-15.60712229935283</v>
+        <v>-15.50514847321893</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004876474867258261</v>
+        <v>0.01913706022439803</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.007398525975863419</v>
+        <v>-0.00735966413156392</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.005535342388702629</v>
+        <v>-0.005480177289250392</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08203949525129119</v>
+        <v>0.08393883687442691</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.005543121604593432</v>
+        <v>-0.005506676607125302</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004756594907113275</v>
+        <v>0.0004788943255707543</v>
       </c>
       <c r="D20" t="n">
-        <v>-13.06122375267371</v>
+        <v>-12.93379869808966</v>
       </c>
       <c r="E20" t="n">
-        <v>4.171514952288219e-07</v>
+        <v>1.973467853527513e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.006475400112895754</v>
+        <v>-0.006445295318353678</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.004610843096291113</v>
+        <v>-0.004568057895896925</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08296330782898079</v>
+        <v>0.08485208097770877</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.003263367144238542</v>
+        <v>-0.003226919721768596</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004665058733254265</v>
+        <v>0.0004689491322503415</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.209332715407827</v>
+        <v>-8.229684307634024</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0002583707643156257</v>
+        <v>1.475962325801704e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.004177704713698394</v>
+        <v>-0.004146046022525506</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002349029574778689</v>
+        <v>-0.002307793421011685</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08524306228933567</v>
+        <v>0.08713183786306547</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.003564553295063925</v>
+        <v>-0.003552895931617429</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004792158176284522</v>
+        <v>0.000482658140764126</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.675268909836387</v>
+        <v>-7.865901296989849</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000714658274040344</v>
+        <v>0.0009112749055926779</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.004503802103207974</v>
+        <v>-0.004498891613413016</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.002625304486919877</v>
+        <v>-0.00260690024982184</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08494187613851029</v>
+        <v>0.08680586165321665</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.003557501292084617</v>
+        <v>-0.003412095109733984</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004523152716267988</v>
+        <v>0.0004547415333718039</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.605916162201303</v>
+        <v>-7.238879072798231</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02917577412055372</v>
+        <v>0.01205112260700671</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.004444025693828793</v>
+        <v>-0.004303374925281229</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.002670976890340441</v>
+        <v>-0.00252081529418674</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0849489281414896</v>
+        <v>0.08694666247510008</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002250385406978238</v>
+        <v>-0.002101847018639536</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004473134614418279</v>
+        <v>0.0004513647380427729</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.323828450117258</v>
+        <v>-5.197042347323535</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0008650435432193291</v>
+        <v>0.007970231669114331</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.003127106371952358</v>
+        <v>-0.00298650838503916</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.001373664442004118</v>
+        <v>-0.001217185652239912</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08625604402659598</v>
+        <v>0.08825691056619453</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001708380286252814</v>
+        <v>-0.001719313154773795</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004207538742031859</v>
+        <v>0.0004241017091654862</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.37801352867651</v>
+        <v>-4.367456470866725</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1289623274452273</v>
+        <v>0.1573463499109329</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.002533045184823293</v>
+        <v>-0.002550539722026844</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0008837153876823341</v>
+        <v>-0.0008880865875207449</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08679804914732141</v>
+        <v>0.08863944443006028</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2106851903530488</v>
+        <v>0.2085237334044212</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003307286072215352</v>
+        <v>0.0009000187644354331</v>
       </c>
       <c r="D26" t="n">
-        <v>98.88865119218204</v>
+        <v>97.8377358435763</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01755462643176985</v>
+        <v>-1.992050766154615</v>
       </c>
       <c r="F26" t="n">
-        <v>0.20420300963343</v>
+        <v>0.204847712435978</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2171673710726675</v>
+        <v>0.2174481433511211</v>
       </c>
       <c r="H26" t="n">
-        <v>0.299191619786623</v>
+        <v>0.2988824909892553</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year0final.xlsx
+++ b/hourly datasets/cap_gen_year0final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,643 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09035875758483407</v>
+        <v>0.1629559011702117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0007453133051119356</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0005572764609807489</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.718937160587231</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.05495597165056257</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.000346931639899571</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.001837558250123442</v>
-      </c>
+        <v>0.07915628772601135</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.091104070889946</v>
+        <v>0.2421121888962231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008047677364066303</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0006930329197153353</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.05545696621027</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.08796933430650267</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.006689353965807333</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.009406000762325274</v>
-      </c>
+        <v>0.09472098128652363</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.09840643494890038</v>
+        <v>0.2576768824567354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04945057672208831</v>
+        <v>0.1097747470681479</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00150024101986116</v>
+        <v>0.01171136365464409</v>
       </c>
       <c r="D5" t="n">
-        <v>23.13783913155312</v>
+        <v>14.8591823686412</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05669583058578501</v>
+        <v>0.04701127523308996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04651014963702772</v>
+        <v>0.08678811982845133</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05239100380714888</v>
+        <v>0.132761374307843</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1398093343069224</v>
+        <v>0.2727306482383596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1423819253842032</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.00304437698360063</v>
-      </c>
-      <c r="D6" t="n">
-        <v>37.71201922392068</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.03799898156646389</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.136415041351782</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1483488094166244</v>
-      </c>
+        <v>0.09439365910418397</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.2327406829690373</v>
+        <v>0.2573495602743957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1495041991566577</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.003790723030796284</v>
-      </c>
-      <c r="D7" t="n">
-        <v>42.32345055914551</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0294209678608905</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1420745012371547</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1569338970761607</v>
-      </c>
+        <v>0.0274456271667575</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.2398629567414918</v>
+        <v>0.1904015283369692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1511409137484277</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.003035353125952376</v>
-      </c>
-      <c r="D8" t="n">
-        <v>36.5381844513278</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.4017802676217984</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1448774408883143</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1620381846380307</v>
-      </c>
+        <v>0.02181309827340861</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.2414996713332618</v>
+        <v>0.1847689994436204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1501044130500133</v>
+        <v>0.005746477084841416</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002453621789350596</v>
+        <v>0.000721609082928775</v>
       </c>
       <c r="D9" t="n">
-        <v>36.08662193691864</v>
+        <v>0.799073896697852</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4801073534113949</v>
+        <v>0.01312271579616394</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1449749135672873</v>
+        <v>0.004329159134232013</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1586472131697937</v>
+        <v>0.007163795035450931</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2404631706348474</v>
+        <v>0.1687023782550532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09035875758483407</v>
+        <v>0.004554951303682061</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000443483405916418</v>
+        <v>0.0003097783360833904</v>
       </c>
       <c r="D10" t="n">
-        <v>-217.1717924417007</v>
+        <v>0.6287071428689888</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.003953529342049239</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09122797183860303</v>
+        <v>0.003947453446229066</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08948954333106511</v>
+        <v>0.005162449161135002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1675108524738938</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03599911804999886</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005093697377723862</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-73.11548590078137</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.03699746758408604</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.03500076851591168</v>
-      </c>
+        <v>0.02518934826016421</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05435963953483521</v>
+        <v>0.1881452494303759</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02771708994545114</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0004996894320669333</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-58.76824807400371</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.383952248851141e-167</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.02869646637905946</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.02673771351184282</v>
-      </c>
+        <v>0.03797291929931811</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06264166763938292</v>
+        <v>0.2009288204695299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02307670914534793</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0004978984353359926</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-49.84734848636217</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.57533279852445e-131</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.02405257534765954</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.02210084294303631</v>
-      </c>
+        <v>0.04884905617611125</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.06728204843948614</v>
+        <v>0.211804957346323</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01882887976883933</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0004929407293723351</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-40.6595153666197</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.652029869760228e-75</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.01979502902715899</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.01786273051051968</v>
-      </c>
+        <v>0.05311686152304591</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.07152987781599474</v>
+        <v>0.2160727626932576</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01294277212538044</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.000468507939730583</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-30.46350840087528</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.151435878293833e-27</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.01386103376584178</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.0120245104849191</v>
-      </c>
+        <v>0.05848998752790046</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.07741598545945363</v>
+        <v>0.2214458886981122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01035343662496674</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0004485325957337553</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-24.49977836198154</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.716059963409994e-46</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.01123254715019084</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.00947432609974265</v>
-      </c>
+        <v>0.06240124250441012</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.08000532095986733</v>
+        <v>0.2253571436746219</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.008320737592332081</v>
+        <v>0.065781671634938</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004473048425164133</v>
+        <v>0.007944803460083263</v>
       </c>
       <c r="D17" t="n">
-        <v>-20.41917019362324</v>
+        <v>12.54710137750203</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05143386165202373</v>
+        <v>0.05117128860737127</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.009197441689374832</v>
+        <v>0.05019620532825422</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.00744403349528933</v>
+        <v>0.08136713794162174</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08203801999250199</v>
+        <v>0.2287375728051498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008280921442804802</v>
+        <v>-0.1629559011702117</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004781901892742485</v>
+        <v>0.009453118276536511</v>
       </c>
       <c r="D18" t="n">
-        <v>-18.12980568129282</v>
+        <v>-34.46147688278994</v>
       </c>
       <c r="E18" t="n">
-        <v>8.902166214344409e-27</v>
+        <v>0.02581983128349655</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.009218160027471535</v>
+        <v>-0.1815128430168745</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.007343682858138066</v>
+        <v>-0.144398959323549</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08207783614202926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006419920710407156</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0004794681499666025</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-15.50514847321893</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.01913706022439803</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.00735966413156392</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.005480177289250392</v>
-      </c>
+        <v>0.06673258489951489</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.08393883687442691</v>
+        <v>0.2296884860697266</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.005506676607125302</v>
+        <v>0.06911610925066358</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004788943255707543</v>
+        <v>0.007970093905316047</v>
       </c>
       <c r="D20" t="n">
-        <v>-12.93379869808966</v>
+        <v>6348597270491.029</v>
       </c>
       <c r="E20" t="n">
-        <v>1.973467853527513e-06</v>
+        <v>0.04521674138873079</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.006445295318353678</v>
+        <v>0.05347562124028456</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.004568057895896925</v>
+        <v>0.08475659726104268</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08485208097770877</v>
+        <v>0.2320720104208753</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.003226919721768596</v>
+        <v>0.06919078299326636</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004689491322503415</v>
+        <v>0.008199850360911993</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.229684307634024</v>
+        <v>-405547461944.7062</v>
       </c>
       <c r="E21" t="n">
-        <v>1.475962325801704e-05</v>
+        <v>0.05380809544142761</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.004146046022525506</v>
+        <v>0.05309742157057661</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002307793421011685</v>
+        <v>0.08528414441595619</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08713183786306547</v>
+        <v>0.2321466841634781</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.003552895931617429</v>
+        <v>0.07068205760569989</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000482658140764126</v>
+        <v>0.00796942128585788</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.865901296989849</v>
+        <v>102236661.9384676</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0009112749055926779</v>
+        <v>0.05570521315056176</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.004498891613413016</v>
+        <v>0.05504317854951406</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00260690024982184</v>
+        <v>0.0863209366618856</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08680586165321665</v>
+        <v>0.2336379587759116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.003412095109733984</v>
+        <v>0.07078594146025063</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004547415333718039</v>
+        <v>0.008042182900678983</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.238879072798231</v>
+        <v>604177124937.2949</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01205112260700671</v>
+        <v>0.05199380974725996</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.004303374925281229</v>
+        <v>0.05500833127055634</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.00252081529418674</v>
+        <v>0.0865635516499447</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08694666247510008</v>
+        <v>0.2337418426304624</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002101847018639536</v>
+        <v>0.07297382822761794</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004513647380427729</v>
+        <v>0.007883840794678921</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.197042347323535</v>
+        <v>539709232882.4528</v>
       </c>
       <c r="E24" t="n">
-        <v>0.007970231669114331</v>
+        <v>0.05713208994355254</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.00298650838503916</v>
+        <v>0.05750685198949459</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.001217185652239912</v>
+        <v>0.08844080446574137</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08825691056619453</v>
+        <v>0.2359297293978297</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001719313154773795</v>
+        <v>0.07268082673404642</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004241017091654862</v>
+        <v>0.00808177862539468</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.367456470866725</v>
+        <v>6311301251684.249</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1573463499109329</v>
+        <v>0.06031425548045784</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.002550539722026844</v>
+        <v>0.05682313520399702</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0008880865875207449</v>
+        <v>0.08853851826409569</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08863944443006028</v>
+        <v>0.2356367279042582</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0749454227007384</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.008363550058519369</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12.42697650787707</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05284927582474146</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.05853245081443942</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0913583945870373</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2379013238709501</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.07434508393536568</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.008581173618174511</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1121437410372.57</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.05612588180513388</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.05750555329484822</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.09118461457588332</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2373009851055774</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.07686518952891538</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.008631167420441893</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12.24054816445052</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.06822516837308501</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.05992661984928194</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.09380375920854836</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2398210906991271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.2085237334044212</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0009000187644354331</v>
-      </c>
-      <c r="D26" t="n">
-        <v>97.8377358435763</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-1.992050766154615</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.204847712435978</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.2174481433511211</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.2988824909892553</v>
+      <c r="B29" t="n">
+        <v>0.001531744538351146</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.001266186910003492</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.097837547711517</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.006618884462485777</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0009513278307228659</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.004014816907425113</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1644876457085629</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year0final.xlsx
+++ b/hourly datasets/cap_gen_year0final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1629559011702117</v>
+        <v>0.1089366021538427</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07915628772601135</v>
+        <v>0.08500062045203191</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2421121888962231</v>
+        <v>0.1939372226058746</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09472098128652363</v>
+        <v>0.09917304706097013</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2576768824567354</v>
+        <v>0.2081096492148129</v>
       </c>
     </row>
     <row r="5">
@@ -536,25 +536,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1097747470681479</v>
+        <v>0.123807232963945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01171136365464409</v>
+        <v>0.01369461941555491</v>
       </c>
       <c r="D5" t="n">
-        <v>14.8591823686412</v>
+        <v>16.00202245006286</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04701127523308996</v>
+        <v>0.06129388298243208</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08678811982845133</v>
+        <v>0.09691080096350797</v>
       </c>
       <c r="G5" t="n">
-        <v>0.132761374307843</v>
+        <v>0.1507036649643816</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2727306482383596</v>
+        <v>0.2327438351177878</v>
       </c>
     </row>
     <row r="6">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09439365910418397</v>
+        <v>0.1110720067567618</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -572,7 +572,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.2573495602743957</v>
+        <v>0.2200086089106045</v>
       </c>
     </row>
     <row r="7">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0274456271667575</v>
+        <v>0.03698560271094231</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -590,7 +590,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.1904015283369692</v>
+        <v>0.145922204864785</v>
       </c>
     </row>
     <row r="8">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02181309827340861</v>
+        <v>0.03114616664858009</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -608,7 +608,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.1847689994436204</v>
+        <v>0.1400827688024228</v>
       </c>
     </row>
     <row r="9">
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005746477084841416</v>
+        <v>0.01659237862443653</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000721609082928775</v>
+        <v>0.002386670275222697</v>
       </c>
       <c r="D9" t="n">
-        <v>0.799073896697852</v>
+        <v>1.346453958426267</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01312271579616394</v>
+        <v>0.01391397053886815</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004329159134232013</v>
+        <v>0.01187945893565428</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007163795035450931</v>
+        <v>0.02130529831321876</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1687023782550532</v>
+        <v>0.1255289807782793</v>
       </c>
     </row>
     <row r="10">
@@ -646,25 +646,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004554951303682061</v>
+        <v>0.01571141166047701</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003097783360833904</v>
+        <v>0.001858316576873916</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6287071428689888</v>
+        <v>0.9755545145950986</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003953529342049239</v>
+        <v>0.003225062826648291</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003947453446229066</v>
+        <v>0.01205509558667424</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005162449161135002</v>
+        <v>0.01936772773428012</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1675108524738938</v>
+        <v>0.1246480138143198</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02518934826016421</v>
+        <v>0.02662391629174165</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -682,7 +682,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1881452494303759</v>
+        <v>0.1355605184455844</v>
       </c>
     </row>
     <row r="12">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03797291929931811</v>
+        <v>0.038878014885981</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -700,7 +700,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.2009288204695299</v>
+        <v>0.1478146170398237</v>
       </c>
     </row>
     <row r="13">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04884905617611125</v>
+        <v>0.05065715289869716</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -718,7 +718,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.211804957346323</v>
+        <v>0.1595937550525399</v>
       </c>
     </row>
     <row r="14">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05311686152304591</v>
+        <v>0.05419193279007294</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -736,7 +736,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2160727626932576</v>
+        <v>0.1631285349439157</v>
       </c>
     </row>
     <row r="15">
@@ -746,15 +746,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05848998752790046</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+        <v>0.05995336894647041</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.008943036960297145</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.68031312222276</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.04716771729463884</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04239731264739489</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.07750942524554597</v>
+      </c>
       <c r="H15" t="n">
-        <v>0.2214458886981122</v>
+        <v>0.1688899711003131</v>
       </c>
     </row>
     <row r="16">
@@ -764,7 +774,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06240124250441012</v>
+        <v>0.0642453643400073</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -772,7 +782,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2253571436746219</v>
+        <v>0.17318196649385</v>
       </c>
     </row>
     <row r="17">
@@ -782,25 +792,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.065781671634938</v>
+        <v>0.06825029440056077</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007944803460083263</v>
+        <v>0.008841851205278278</v>
       </c>
       <c r="D17" t="n">
-        <v>12.54710137750203</v>
+        <v>12.66402477271134</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05117128860737127</v>
+        <v>0.05173022530280881</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05019620532825422</v>
+        <v>0.05089728137956876</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08136713794162174</v>
+        <v>0.08560330742155288</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2287375728051498</v>
+        <v>0.1771868965544035</v>
       </c>
     </row>
     <row r="18">
@@ -810,22 +820,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1629559011702117</v>
+        <v>-0.1089366021538427</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009453118276536511</v>
+        <v>0.01281683042101939</v>
       </c>
       <c r="D18" t="n">
-        <v>-34.46147688278994</v>
+        <v>-16.44676351054337</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02581983128349655</v>
+        <v>0.04008260604847166</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1815128430168745</v>
+        <v>-0.1341034378989942</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.144398959323549</v>
+        <v>-0.08376976640869119</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -838,7 +848,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06673258489951489</v>
+        <v>0.06830557377428821</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -846,7 +856,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2296884860697266</v>
+        <v>0.177242175928131</v>
       </c>
     </row>
     <row r="20">
@@ -856,25 +866,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06911610925066358</v>
+        <v>0.07226336649908023</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007970093905316047</v>
+        <v>0.00890602765187856</v>
       </c>
       <c r="D20" t="n">
-        <v>6348597270491.029</v>
+        <v>5668150894494.086</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04521674138873079</v>
+        <v>0.04432099779570591</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05347562124028456</v>
+        <v>0.05478289827742396</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08475659726104268</v>
+        <v>0.08974383472073651</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2320720104208753</v>
+        <v>0.181199968652923</v>
       </c>
     </row>
     <row r="21">
@@ -884,25 +894,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06919078299326636</v>
+        <v>0.07241528648047106</v>
       </c>
       <c r="C21" t="n">
-        <v>0.008199850360911993</v>
+        <v>0.008991318092873422</v>
       </c>
       <c r="D21" t="n">
-        <v>-405547461944.7062</v>
+        <v>-428133630578.8991</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05380809544142761</v>
+        <v>0.0506141623508175</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05309742157057661</v>
+        <v>0.05476696315514627</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08528414441595619</v>
+        <v>0.09006360980579604</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2321466841634781</v>
+        <v>0.1813518886343138</v>
       </c>
     </row>
     <row r="22">
@@ -912,25 +922,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07068205760569989</v>
+        <v>0.0729059892368354</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00796942128585788</v>
+        <v>0.008834673550572545</v>
       </c>
       <c r="D22" t="n">
-        <v>102236661.9384676</v>
+        <v>104298678.5056185</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05570521315056176</v>
+        <v>0.05542860158423735</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05504317854951406</v>
+        <v>0.0555645292479386</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0863209366618856</v>
+        <v>0.09024744922573248</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2336379587759116</v>
+        <v>0.1818425913906782</v>
       </c>
     </row>
     <row r="23">
@@ -940,25 +950,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.07078594146025063</v>
+        <v>0.0738015138916179</v>
       </c>
       <c r="C23" t="n">
-        <v>0.008042182900678983</v>
+        <v>0.00887600175227507</v>
       </c>
       <c r="D23" t="n">
-        <v>604177124937.2949</v>
+        <v>609921337538.8508</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05199380974725996</v>
+        <v>0.05043224462281864</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05500833127055634</v>
+        <v>0.05637587448914926</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0865635516499447</v>
+        <v>0.09122715329408662</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2337418426304624</v>
+        <v>0.1827381160454606</v>
       </c>
     </row>
     <row r="24">
@@ -968,25 +978,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.07297382822761794</v>
+        <v>0.07547225321043659</v>
       </c>
       <c r="C24" t="n">
-        <v>0.007883840794678921</v>
+        <v>0.008532349552489216</v>
       </c>
       <c r="D24" t="n">
-        <v>539709232882.4528</v>
+        <v>531793911756.0118</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05713208994355254</v>
+        <v>0.05373465134791208</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05750685198949459</v>
+        <v>0.05872494904565367</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08844080446574137</v>
+        <v>0.0922195573752197</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2359297293978297</v>
+        <v>0.1844088553642793</v>
       </c>
     </row>
     <row r="25">
@@ -996,25 +1006,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07268082673404642</v>
+        <v>0.07771443315715504</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00808177862539468</v>
+        <v>0.009112689933835834</v>
       </c>
       <c r="D25" t="n">
-        <v>6311301251684.249</v>
+        <v>6634860042354.429</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06031425548045784</v>
+        <v>0.06172046840013464</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05682313520399702</v>
+        <v>0.05982240874266918</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08853851826409569</v>
+        <v>0.09560645757164075</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2356367279042582</v>
+        <v>0.1866510353109978</v>
       </c>
     </row>
     <row r="26">
@@ -1024,25 +1034,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0749454227007384</v>
+        <v>0.08000025974785395</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008363550058519369</v>
+        <v>0.009167721000248905</v>
       </c>
       <c r="D26" t="n">
-        <v>12.42697650787707</v>
+        <v>12.72034225711517</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05284927582474146</v>
+        <v>0.05365001257679801</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05853245081443942</v>
+        <v>0.06200389481192491</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0913583945870373</v>
+        <v>0.09799662468378292</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2379013238709501</v>
+        <v>0.1889368619016967</v>
       </c>
     </row>
     <row r="27">
@@ -1052,25 +1062,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.07434508393536568</v>
+        <v>0.07900893735709619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.008581173618174511</v>
+        <v>0.009556243819865662</v>
       </c>
       <c r="D27" t="n">
-        <v>1121437410372.57</v>
+        <v>12.45274135783254</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05612588180513388</v>
+        <v>0.05898925413476505</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05750555329484822</v>
+        <v>0.06024596718288395</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09118461457588332</v>
+        <v>0.09777190753130867</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2373009851055774</v>
+        <v>0.1879455395109389</v>
       </c>
     </row>
     <row r="28">
@@ -1080,25 +1090,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07686518952891538</v>
+        <v>0.08342092917406124</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008631167420441893</v>
+        <v>0.009432738458176711</v>
       </c>
       <c r="D28" t="n">
-        <v>12.24054816445052</v>
+        <v>12.37454337021428</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06822516837308501</v>
+        <v>0.06874796859422674</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05992661984928194</v>
+        <v>0.06491092979499977</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09380375920854836</v>
+        <v>0.1019309285531226</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2398210906991271</v>
+        <v>0.192357531327904</v>
       </c>
     </row>
     <row r="29">
@@ -1108,25 +1118,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.001531744538351146</v>
+        <v>0.008933096119192879</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001266186910003492</v>
+        <v>0.003874225444742033</v>
       </c>
       <c r="D29" t="n">
-        <v>1.097837547711517</v>
+        <v>1.163037890108816</v>
       </c>
       <c r="E29" t="n">
-        <v>0.006618884462485777</v>
+        <v>0.03203492588249782</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0009513278307228659</v>
+        <v>0.001305982207810635</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004014816907425113</v>
+        <v>0.01656021003057486</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1644876457085629</v>
+        <v>0.1178696982730356</v>
       </c>
     </row>
   </sheetData>
